--- a/config_Release/level_server.xlsx
+++ b/config_Release/level_server.xlsx
@@ -16,13 +16,14 @@
     <sheet name="award_data" sheetId="4" r:id="rId2"/>
     <sheet name="dress_data" sheetId="5" r:id="rId3"/>
     <sheet name="score_k" sheetId="7" r:id="rId4"/>
+    <sheet name="unlock" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -58,6 +59,173 @@
   <si>
     <t>|备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|段位等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame|段位解锁的头像框id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>phrase|段位解锁的短语id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>expression|段位解锁的表情id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|配置id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id|游戏id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>add|增加分数系数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec|减少分数系数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_type|游戏type</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_3d_game</t>
+  </si>
+  <si>
+    <t>tantanle_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_game</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_image|财富图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_index|解锁的炮索引</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_award_types|解锁炮等级奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_award_nums|解锁炮等级奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>no|行号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_gun|解锁炮倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,1,</t>
+  </si>
+  <si>
+    <t>5100,1,</t>
+  </si>
+  <si>
+    <t>5200,1,</t>
+  </si>
+  <si>
+    <t>5300,1,</t>
+  </si>
+  <si>
+    <t>5400,1,</t>
+  </si>
+  <si>
+    <t>5500,1,</t>
+  </si>
+  <si>
+    <t>5600,1,</t>
+  </si>
+  <si>
+    <t>5700,1,</t>
+  </si>
+  <si>
+    <t>5800,1,</t>
+  </si>
+  <si>
+    <t>5900,1,</t>
+  </si>
+  <si>
+    <t>6000,1,</t>
+  </si>
+  <si>
+    <t>6100,1,</t>
+  </si>
+  <si>
+    <t>6200,1,</t>
+  </si>
+  <si>
+    <t>6300,1,</t>
+  </si>
+  <si>
+    <t>6400,1,</t>
+  </si>
+  <si>
+    <t>6500,1,</t>
+  </si>
+  <si>
+    <t>6600,1,</t>
+  </si>
+  <si>
+    <t>6700,1,</t>
+  </si>
+  <si>
+    <t>6800,1,</t>
+  </si>
+  <si>
+    <t>6900,1,</t>
+  </si>
+  <si>
+    <t>7000,1,</t>
+  </si>
+  <si>
+    <t>7100,1,</t>
+  </si>
+  <si>
+    <t>7200,1,</t>
+  </si>
+  <si>
+    <t>7300,1,</t>
   </si>
   <si>
     <r>
@@ -77,110 +245,22 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>level|段位等级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_frame|段位解锁的头像框id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>phrase|段位解锁的短语id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>expression|段位解锁的表情id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|配置id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_id|游戏id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>add|增加分数系数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec|减少分数系数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_type|游戏type</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_3d_game</t>
-  </si>
-  <si>
-    <t>tantanle_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiaole_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiaole_caishen_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiaole_shuihu_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>zajindan_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>guess_apple_game</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset_image|财富图片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_lock"</t>
+    <t>"fish_coin","prop_3d_fish_lock"</t>
+  </si>
+  <si>
+    <t>"fish_coin","prop_3d_fish_lock"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>200,3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_jingbi","3dby_btn_sd"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币，锁定，</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>"fish_coin","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,9 +341,16 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -339,8 +426,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,11 +762,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>375000</v>
+        <v>75000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E2" s="11"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
     </row>
@@ -685,8 +779,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
-        <v>1125000</v>
-      </c>
+        <v>150000</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -697,8 +793,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11">
-        <v>1875000</v>
-      </c>
+        <v>225000</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -709,8 +807,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11">
-        <v>2250000</v>
-      </c>
+        <v>337500</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -721,8 +821,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11">
-        <v>3750000</v>
-      </c>
+        <v>450000</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -732,8 +834,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11">
-        <v>5625000</v>
-      </c>
+        <v>600000</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -743,8 +847,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11">
-        <v>9375000</v>
-      </c>
+        <v>750000</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -754,8 +860,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11">
-        <v>15000000</v>
-      </c>
+        <v>937500</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -765,8 +873,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="11">
-        <v>18750000</v>
-      </c>
+        <v>1125000</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -776,8 +886,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="11">
-        <v>37500000</v>
-      </c>
+        <v>1350000</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -787,8 +899,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="11">
-        <v>56250000</v>
-      </c>
+        <v>1575000</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -798,8 +912,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="11">
-        <v>93750000</v>
-      </c>
+        <v>4200000</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -809,8 +925,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="11">
-        <v>150000000</v>
-      </c>
+        <v>6825000</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -820,8 +938,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="11">
-        <v>187500000</v>
-      </c>
+        <v>9825000</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -831,10 +951,12 @@
         <v>15</v>
       </c>
       <c r="C16" s="11">
-        <v>225000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12825000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -842,10 +964,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="11">
-        <v>281250000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16200000</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -853,10 +977,12 @@
         <v>17</v>
       </c>
       <c r="C18" s="11">
-        <v>337500000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19575000</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -864,10 +990,12 @@
         <v>18</v>
       </c>
       <c r="C19" s="11">
-        <v>375000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23325000</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -875,10 +1003,12 @@
         <v>19</v>
       </c>
       <c r="C20" s="11">
-        <v>937500000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27075000</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -886,10 +1016,12 @@
         <v>20</v>
       </c>
       <c r="C21" s="11">
-        <v>1500000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32700000</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -897,10 +1029,12 @@
         <v>21</v>
       </c>
       <c r="C22" s="11">
-        <v>1875000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38325000</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -908,10 +1042,12 @@
         <v>22</v>
       </c>
       <c r="C23" s="11">
-        <v>2250000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49575000</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -919,10 +1055,12 @@
         <v>23</v>
       </c>
       <c r="C24" s="11">
-        <v>2812500000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60825000</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -930,10 +1068,12 @@
         <v>24</v>
       </c>
       <c r="C25" s="11">
-        <v>3375000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83325000</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -951,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -976,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -985,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -995,523 +1135,40 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C10" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="7"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="7"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="7"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="7"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="7"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1525,7 +1182,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,13 +1202,13 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
@@ -1676,7 +1333,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1689,19 +1346,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1709,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1726,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1743,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1760,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1777,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1794,7 +1451,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1811,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -1828,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1845,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -1862,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1879,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1896,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1913,7 +1570,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1930,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1947,7 +1604,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1964,4 +1621,530 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="6" max="7" width="43.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12">
+        <v>25</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/config_Release/level_server.xlsx
+++ b/config_Release/level_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>score|段位分数-晋级下一级的分数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>|备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -154,78 +150,6 @@
   <si>
     <t>level|等级</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,1,</t>
-  </si>
-  <si>
-    <t>5100,1,</t>
-  </si>
-  <si>
-    <t>5200,1,</t>
-  </si>
-  <si>
-    <t>5300,1,</t>
-  </si>
-  <si>
-    <t>5400,1,</t>
-  </si>
-  <si>
-    <t>5500,1,</t>
-  </si>
-  <si>
-    <t>5600,1,</t>
-  </si>
-  <si>
-    <t>5700,1,</t>
-  </si>
-  <si>
-    <t>5800,1,</t>
-  </si>
-  <si>
-    <t>5900,1,</t>
-  </si>
-  <si>
-    <t>6000,1,</t>
-  </si>
-  <si>
-    <t>6100,1,</t>
-  </si>
-  <si>
-    <t>6200,1,</t>
-  </si>
-  <si>
-    <t>6300,1,</t>
-  </si>
-  <si>
-    <t>6400,1,</t>
-  </si>
-  <si>
-    <t>6500,1,</t>
-  </si>
-  <si>
-    <t>6600,1,</t>
-  </si>
-  <si>
-    <t>6700,1,</t>
-  </si>
-  <si>
-    <t>6800,1,</t>
-  </si>
-  <si>
-    <t>6900,1,</t>
-  </si>
-  <si>
-    <t>7000,1,</t>
-  </si>
-  <si>
-    <t>7100,1,</t>
-  </si>
-  <si>
-    <t>7200,1,</t>
-  </si>
-  <si>
-    <t>7300,1,</t>
   </si>
   <si>
     <r>
@@ -253,6 +177,206 @@
   </si>
   <si>
     <t>"fish_coin","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>score|经验值，差值计算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -430,9 +554,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,17 +832,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.375" style="2" customWidth="1"/>
@@ -739,11 +860,11 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -765,7 +886,7 @@
         <v>75000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E2" s="11"/>
       <c r="H2" s="3"/>
@@ -847,7 +968,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="11">
-        <v>750000</v>
+        <v>787500</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -860,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="11">
-        <v>937500</v>
+        <v>975000</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -873,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11">
-        <v>1125000</v>
+        <v>1200000</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -886,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="11">
-        <v>1350000</v>
+        <v>1425000</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -899,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="11">
-        <v>1575000</v>
+        <v>1687500</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -912,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="11">
-        <v>4200000</v>
+        <v>4312500</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -925,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="11">
-        <v>6825000</v>
+        <v>7312500</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -938,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="11">
-        <v>9825000</v>
+        <v>10312500</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -951,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="11">
-        <v>12825000</v>
+        <v>13687500</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -964,7 +1085,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="11">
-        <v>16200000</v>
+        <v>17062500</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -977,7 +1098,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="11">
-        <v>19575000</v>
+        <v>20812500</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -990,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="11">
-        <v>23325000</v>
+        <v>24562500</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1003,7 +1124,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="11">
-        <v>27075000</v>
+        <v>30187500</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1016,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="11">
-        <v>32700000</v>
+        <v>35812500</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1029,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="11">
-        <v>38325000</v>
+        <v>43312500</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1042,7 +1163,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="11">
-        <v>49575000</v>
+        <v>54562500</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -1055,7 +1176,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="11">
-        <v>60825000</v>
+        <v>69562500</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -1068,7 +1189,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="11">
-        <v>83325000</v>
+        <v>107062500</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1080,7 +1201,281 @@
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26"/>
+      <c r="C26">
+        <v>153937500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
+        <v>210187500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>275812500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2">
+        <v>350812500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2">
+        <v>435187500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>528937500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>622687500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2">
+        <v>735187500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>866437500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1016437500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1185187500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1372687500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1578937500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1803937500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2047687500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2347687500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2685187500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3060187500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3622687500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4372687500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5310187500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6435187500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7747687500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2">
+        <v>9247687500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10935187500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1093,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1125,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -1202,17 +1597,17 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="6"/>
     </row>
@@ -1346,19 +1741,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1366,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1383,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1400,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1417,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1434,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1451,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1468,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -1485,7 +1880,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1502,7 +1897,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -1519,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1536,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1553,7 +1948,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1570,7 +1965,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1587,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1604,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1625,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1642,25 +2037,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1677,10 +2072,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5">
         <v>600</v>
@@ -1700,10 +2095,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G3" s="5">
         <v>700</v>
@@ -1723,10 +2118,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5">
         <v>800</v>
@@ -1746,10 +2141,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G5" s="5">
         <v>900</v>
@@ -1769,10 +2164,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5">
         <v>1000</v>
@@ -1787,10 +2182,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1800,12 +2195,20 @@
       <c r="B8" s="12">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1815,12 +2218,20 @@
       <c r="B9" s="12">
         <v>9</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1830,12 +2241,20 @@
       <c r="B10" s="12">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1845,12 +2264,20 @@
       <c r="B11" s="12">
         <v>11</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1860,15 +2287,21 @@
       <c r="B12" s="12">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="G12" s="5">
+        <v>6000</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1881,16 +2314,16 @@
         <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1904,16 +2337,16 @@
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G14" s="5">
-        <v>3000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1927,16 +2360,16 @@
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5">
-        <v>4000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1950,16 +2383,16 @@
         <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G16" s="5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1969,20 +2402,11 @@
       <c r="B17" s="12">
         <v>17</v>
       </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="5">
-        <v>6000</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1992,20 +2416,11 @@
       <c r="B18" s="12">
         <v>18</v>
       </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="5">
-        <v>7000</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2015,20 +2430,11 @@
       <c r="B19" s="12">
         <v>19</v>
       </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="5">
-        <v>8000</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2038,20 +2444,11 @@
       <c r="B20" s="12">
         <v>20</v>
       </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>9</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="5">
-        <v>9000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2061,20 +2458,11 @@
       <c r="B21" s="12">
         <v>21</v>
       </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="5">
-        <v>10000</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2087,10 +2475,10 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -2104,10 +2492,10 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -2121,10 +2509,10 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -2136,10 +2524,360 @@
         <v>25</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12">
+        <v>26</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12">
+        <v>27</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12">
+        <v>28</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12">
+        <v>29</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12">
+        <v>30</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12">
+        <v>31</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12">
+        <v>32</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12">
+        <v>33</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12">
+        <v>34</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12">
+        <v>35</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12">
+        <v>36</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12">
+        <v>37</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12">
+        <v>38</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12">
+        <v>39</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12">
+        <v>40</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12">
+        <v>41</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12">
+        <v>42</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12">
+        <v>43</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12">
+        <v>44</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12">
+        <v>45</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12">
+        <v>46</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12">
+        <v>47</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12">
+        <v>48</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12">
+        <v>49</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12">
+        <v>50</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/level_server.xlsx
+++ b/config_Release/level_server.xlsx
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1475,6 +1475,9 @@
       </c>
       <c r="B51" s="2">
         <v>50</v>
+      </c>
+      <c r="C51" s="2">
+        <v>99999999999</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/level_server.xlsx
+++ b/config_Release/level_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -377,6 +377,244 @@
   </si>
   <si>
     <t>6800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips|标签</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunlv_tips|炮台解锁等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_img|炮台icon</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级领炮台</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级解锁</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级领炮台</t>
+  </si>
+  <si>
+    <t>30级领头像框</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级解锁</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级解锁</t>
+  </si>
+  <si>
+    <t>50级解锁</t>
+  </si>
+  <si>
+    <t>60级解锁</t>
+  </si>
+  <si>
+    <t>70级解锁</t>
+  </si>
+  <si>
+    <t>80级解锁</t>
+  </si>
+  <si>
+    <t>90级解锁</t>
+  </si>
+  <si>
+    <t>100级解锁</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级领头像框</t>
+  </si>
+  <si>
+    <t>100级领炮台</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>90级领头像框</t>
+  </si>
+  <si>
+    <t>80级领炮台</t>
+  </si>
+  <si>
+    <t>70级领头像框</t>
+  </si>
+  <si>
+    <t>60级领炮台</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_type|是否是炮台</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx4</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,12 +752,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,6 +804,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,17 +1084,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.375" style="2" customWidth="1"/>
@@ -1202,7 +1454,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>153937500</v>
+        <v>163312500</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1213,7 +1465,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>210187500</v>
+        <v>238312500</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1224,7 +1476,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>275812500</v>
+        <v>332062500</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1235,7 +1487,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="2">
-        <v>350812500</v>
+        <v>444562500</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1246,7 +1498,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="2">
-        <v>435187500</v>
+        <v>575812500</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,7 +1509,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="2">
-        <v>528937500</v>
+        <v>725812500</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,7 +1520,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="2">
-        <v>622687500</v>
+        <v>894562500</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1279,7 +1531,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="2">
-        <v>735187500</v>
+        <v>1082062500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,7 +1542,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>866437500</v>
+        <v>1288312500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1553,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>1016437500</v>
+        <v>1513312500</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,7 +1564,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="2">
-        <v>1185187500</v>
+        <v>1757062500</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,7 +1575,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="2">
-        <v>1372687500</v>
+        <v>2019562500</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,7 +1586,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="2">
-        <v>1578937500</v>
+        <v>2300812500</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,7 +1597,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="2">
-        <v>1803937500</v>
+        <v>2600812500</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,7 +1608,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="2">
-        <v>2047687500</v>
+        <v>2938312500</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1367,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="2">
-        <v>2347687500</v>
+        <v>3500812500</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1378,7 +1630,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="2">
-        <v>2685187500</v>
+        <v>4250812500</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,7 +1641,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="2">
-        <v>3060187500</v>
+        <v>5188312500</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,7 +1652,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="2">
-        <v>3622687500</v>
+        <v>6313312500</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,7 +1663,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="2">
-        <v>4372687500</v>
+        <v>7625812500</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,7 +1674,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="2">
-        <v>5310187500</v>
+        <v>9125812500</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,7 +1685,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="2">
-        <v>6435187500</v>
+        <v>10813312500</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1444,7 +1696,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="2">
-        <v>7747687500</v>
+        <v>12688312500</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1455,7 +1707,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="2">
-        <v>9247687500</v>
+        <v>14750812500</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1466,7 +1718,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="2">
-        <v>10935187500</v>
+        <v>17563312500</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1477,7 +1729,557 @@
         <v>50</v>
       </c>
       <c r="C51" s="2">
-        <v>99999999999</v>
+        <v>21313312500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2">
+        <v>28813312500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2">
+        <v>38188312500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2">
+        <v>49438312500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2">
+        <v>62563312500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2">
+        <v>77563312500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2">
+        <v>94438312500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2">
+        <v>113188312500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2">
+        <v>133813312500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2">
+        <v>156313312500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2">
+        <v>180688312500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2">
+        <v>206938312500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2">
+        <v>235063312500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2">
+        <v>265063312500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2">
+        <v>296938312500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2">
+        <v>330688312500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2">
+        <v>366313312500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2">
+        <v>403813312500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2">
+        <v>443188312500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2">
+        <v>484438312500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2">
+        <v>559438312500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2">
+        <v>671938312500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2">
+        <v>821938312500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1009438312500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1234438312500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1496938312500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1796938312500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2134438312500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2509438312500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2921938312500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3371938312500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3859438312500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4384438312500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4946938312500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5546938312500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6184438312500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6859438312500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2">
+        <v>7571938312500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2">
+        <v>8321938312500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2">
+        <v>9109438312500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2">
+        <v>9934438312500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10796938312500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2">
+        <v>11696938312500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2">
+        <v>12634438312500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>94</v>
+      </c>
+      <c r="C95" s="2">
+        <v>13609438312500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2">
+        <v>14621938312500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2">
+        <v>15671938312500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2">
+        <v>16759438312500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>98</v>
+      </c>
+      <c r="C99" s="2">
+        <v>17884438312500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>99</v>
+      </c>
+      <c r="C100" s="2">
+        <v>19046938312500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>100</v>
+      </c>
+      <c r="C101" s="2">
+        <v>999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +2294,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1731,7 +2533,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2023,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2036,9 +2838,12 @@
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="37.125" customWidth="1"/>
     <col min="6" max="7" width="43.375" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2060,8 +2865,20 @@
       <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2084,7 +2901,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2107,7 +2924,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2130,7 +2947,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2153,7 +2970,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2176,7 +2993,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2191,7 +3008,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2214,7 +3031,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2237,7 +3054,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2260,7 +3077,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2283,7 +3100,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2306,7 +3123,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2329,7 +3146,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2352,7 +3169,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2375,7 +3192,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2398,7 +3215,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2411,8 +3228,11 @@
       <c r="F17" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2425,8 +3245,11 @@
       <c r="F18" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2439,8 +3262,11 @@
       <c r="F19" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2453,8 +3279,11 @@
       <c r="F20" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2467,8 +3296,11 @@
       <c r="F21" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2484,8 +3316,11 @@
         <v>57</v>
       </c>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2501,8 +3336,11 @@
         <v>58</v>
       </c>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2518,8 +3356,11 @@
         <v>59</v>
       </c>
       <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2532,8 +3373,20 @@
       <c r="F25" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2546,8 +3399,10 @@
       <c r="F26" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2560,8 +3415,10 @@
       <c r="F27" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2574,8 +3431,10 @@
       <c r="F28" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2588,8 +3447,10 @@
       <c r="F29" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2602,8 +3463,20 @@
       <c r="F30" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2616,8 +3489,11 @@
       <c r="F31" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2630,8 +3506,11 @@
       <c r="F32" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2644,8 +3523,11 @@
       <c r="F33" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2658,8 +3540,11 @@
       <c r="F34" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2672,8 +3557,11 @@
       <c r="F35" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2686,8 +3574,11 @@
       <c r="F36" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2700,8 +3591,11 @@
       <c r="F37" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2714,8 +3608,11 @@
       <c r="F38" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2728,8 +3625,11 @@
       <c r="F39" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2742,8 +3642,20 @@
       <c r="F40" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2756,8 +3668,10 @@
       <c r="F41" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2770,8 +3684,10 @@
       <c r="F42" s="13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2784,8 +3700,10 @@
       <c r="F43" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2798,8 +3716,10 @@
       <c r="F44" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2812,8 +3732,10 @@
       <c r="F45" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2826,8 +3748,10 @@
       <c r="F46" s="13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2840,8 +3764,10 @@
       <c r="F47" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2854,8 +3780,10 @@
       <c r="F48" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2868,8 +3796,10 @@
       <c r="F49" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2881,6 +3811,895 @@
       </c>
       <c r="F50" s="13" t="s">
         <v>85</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12">
+        <v>51</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12">
+        <v>52</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12">
+        <v>53</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12">
+        <v>54</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12">
+        <v>55</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12">
+        <v>56</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12">
+        <v>57</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12">
+        <v>58</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12">
+        <v>59</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12">
+        <v>60</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12">
+        <v>61</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12">
+        <v>62</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12">
+        <v>63</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12">
+        <v>64</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12">
+        <v>65</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12">
+        <v>66</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="12">
+        <v>67</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12">
+        <v>68</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12">
+        <v>69</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12">
+        <v>70</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12">
+        <v>71</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12">
+        <v>72</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12">
+        <v>73</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12">
+        <v>74</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12">
+        <v>75</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12">
+        <v>76</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12">
+        <v>77</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="12">
+        <v>78</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12">
+        <v>79</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12">
+        <v>80</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12">
+        <v>81</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12">
+        <v>82</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="12">
+        <v>83</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12">
+        <v>84</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12">
+        <v>85</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="12">
+        <v>86</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="12">
+        <v>87</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="12">
+        <v>88</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="12">
+        <v>89</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="12">
+        <v>90</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="12">
+        <v>91</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="12">
+        <v>92</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="12">
+        <v>93</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="12">
+        <v>94</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="12">
+        <v>95</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="12">
+        <v>96</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="12">
+        <v>97</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="12">
+        <v>98</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="12">
+        <v>99</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="12">
+        <v>100</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/level_server.xlsx
+++ b/config_Release/level_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="150">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -188,14 +188,276 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>2200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips|标签</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunlv_tips|炮台解锁等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_img|炮台icon</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级领炮台</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级解锁</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级领炮台</t>
+  </si>
+  <si>
+    <t>30级领头像框</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级解锁</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级解锁</t>
+  </si>
+  <si>
+    <t>50级解锁</t>
+  </si>
+  <si>
+    <t>60级解锁</t>
+  </si>
+  <si>
+    <t>70级解锁</t>
+  </si>
+  <si>
+    <t>80级解锁</t>
+  </si>
+  <si>
+    <t>90级解锁</t>
+  </si>
+  <si>
+    <t>100级解锁</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级领头像框</t>
+  </si>
+  <si>
+    <t>100级领炮台</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>90级领头像框</t>
+  </si>
+  <si>
+    <t>80级领炮台</t>
+  </si>
+  <si>
+    <t>70级领头像框</t>
+  </si>
+  <si>
+    <t>60级领炮台</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_type|是否是炮台</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1700,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900,1,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>2100,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>2200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>2300,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -204,14 +466,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>2500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>2700,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -224,22 +478,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>3000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>3100,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>3200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>3400,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -248,34 +490,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>3600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>3700,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>3800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>4100,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>4200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>4300,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -304,14 +526,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>5000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>5200,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -328,10 +542,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>5600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>5700,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -368,22 +578,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>6600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>7000,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -396,22 +590,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>7300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>7700,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -432,14 +610,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>8200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>8400,1,</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -448,173 +618,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>8600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>8700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips|标签</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gunlv_tips|炮台解锁等级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_img|炮台icon</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_djpt1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>25级领炮台</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>25级解锁</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>40级领炮台</t>
-  </si>
-  <si>
-    <t>30级领头像框</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>30级解锁</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>40级解锁</t>
-  </si>
-  <si>
-    <t>50级解锁</t>
-  </si>
-  <si>
-    <t>60级解锁</t>
-  </si>
-  <si>
-    <t>70级解锁</t>
-  </si>
-  <si>
-    <t>80级解锁</t>
-  </si>
-  <si>
-    <t>90级解锁</t>
-  </si>
-  <si>
-    <t>100级解锁</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>50级领头像框</t>
-  </si>
-  <si>
-    <t>100级领炮台</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>90级领头像框</t>
-  </si>
-  <si>
-    <t>80级领炮台</t>
-  </si>
-  <si>
-    <t>70级领头像框</t>
-  </si>
-  <si>
-    <t>60级领炮台</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_djpt3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_type|是否是炮台</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_tx_mx1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_tx_mx2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_tx_mx3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_tx_mx4</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -2293,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2381,9 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2827,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2866,16 +2868,16 @@
         <v>30</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -2895,7 +2897,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G2" s="5">
         <v>600</v>
@@ -2918,7 +2920,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="G3" s="5">
         <v>700</v>
@@ -2941,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="G4" s="5">
         <v>800</v>
@@ -2964,7 +2966,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="G5" s="5">
         <v>900</v>
@@ -2987,7 +2989,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G6" s="5">
         <v>1000</v>
@@ -3005,7 +3007,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3025,7 +3027,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5">
         <v>2000</v>
@@ -3048,7 +3050,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="G9" s="5">
         <v>3000</v>
@@ -3071,7 +3073,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="G10" s="5">
         <v>4000</v>
@@ -3094,7 +3096,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="G11" s="5">
         <v>5000</v>
@@ -3117,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G12" s="5">
         <v>6000</v>
@@ -3140,7 +3142,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="G13" s="5">
         <v>7000</v>
@@ -3163,7 +3165,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G14" s="5">
         <v>8000</v>
@@ -3186,7 +3188,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G15" s="5">
         <v>9000</v>
@@ -3209,7 +3211,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="G16" s="5">
         <v>10000</v>
@@ -3226,7 +3228,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -3243,7 +3245,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -3260,7 +3262,7 @@
         <v>33</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3277,7 +3279,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3294,7 +3296,7 @@
         <v>33</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3313,7 +3315,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="7"/>
@@ -3333,7 +3335,7 @@
         <v>33</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="7"/>
@@ -3353,7 +3355,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="7"/>
@@ -3371,16 +3373,16 @@
         <v>34</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3397,7 +3399,7 @@
         <v>34</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3413,7 +3415,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3429,7 +3431,7 @@
         <v>34</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3445,7 +3447,7 @@
         <v>34</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3461,16 +3463,16 @@
         <v>34</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3487,7 +3489,7 @@
         <v>34</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -3504,7 +3506,7 @@
         <v>34</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3521,7 +3523,7 @@
         <v>34</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3538,7 +3540,7 @@
         <v>34</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -3555,7 +3557,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3572,7 +3574,7 @@
         <v>34</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -3589,7 +3591,7 @@
         <v>34</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -3606,7 +3608,7 @@
         <v>34</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -3623,7 +3625,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3640,16 +3642,16 @@
         <v>34</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3666,7 +3668,7 @@
         <v>34</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -3682,7 +3684,7 @@
         <v>34</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -3698,7 +3700,7 @@
         <v>34</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -3714,7 +3716,7 @@
         <v>34</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -3730,7 +3732,7 @@
         <v>34</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -3746,7 +3748,7 @@
         <v>34</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -3762,7 +3764,7 @@
         <v>34</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -3778,7 +3780,7 @@
         <v>34</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -3794,7 +3796,7 @@
         <v>34</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -3810,16 +3812,16 @@
         <v>34</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -3836,7 +3838,7 @@
         <v>34</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -3853,7 +3855,7 @@
         <v>34</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -3870,7 +3872,7 @@
         <v>34</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -3887,7 +3889,7 @@
         <v>34</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -3904,7 +3906,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -3921,7 +3923,7 @@
         <v>34</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -3938,7 +3940,7 @@
         <v>34</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -3955,7 +3957,7 @@
         <v>34</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -3972,7 +3974,7 @@
         <v>34</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -3989,16 +3991,16 @@
         <v>34</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4015,7 +4017,7 @@
         <v>34</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -4031,7 +4033,7 @@
         <v>34</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -4047,7 +4049,7 @@
         <v>34</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -4063,7 +4065,7 @@
         <v>34</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -4079,7 +4081,7 @@
         <v>34</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -4095,7 +4097,7 @@
         <v>34</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -4111,7 +4113,7 @@
         <v>34</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -4127,7 +4129,7 @@
         <v>34</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -4143,7 +4145,7 @@
         <v>34</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -4159,16 +4161,16 @@
         <v>34</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -4185,7 +4187,7 @@
         <v>34</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -4202,7 +4204,7 @@
         <v>34</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -4219,7 +4221,7 @@
         <v>34</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -4236,7 +4238,7 @@
         <v>34</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -4253,7 +4255,7 @@
         <v>34</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -4270,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -4287,7 +4289,7 @@
         <v>34</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -4304,7 +4306,7 @@
         <v>34</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -4321,7 +4323,7 @@
         <v>34</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -4338,16 +4340,16 @@
         <v>34</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -4364,7 +4366,7 @@
         <v>34</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -4380,7 +4382,7 @@
         <v>34</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -4396,7 +4398,7 @@
         <v>34</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -4412,7 +4414,7 @@
         <v>34</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -4428,7 +4430,7 @@
         <v>34</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -4444,7 +4446,7 @@
         <v>34</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -4460,7 +4462,7 @@
         <v>34</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -4476,7 +4478,7 @@
         <v>34</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -4492,7 +4494,7 @@
         <v>34</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -4508,16 +4510,16 @@
         <v>34</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -4534,7 +4536,7 @@
         <v>34</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -4551,7 +4553,7 @@
         <v>34</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -4568,7 +4570,7 @@
         <v>34</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -4585,7 +4587,7 @@
         <v>34</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -4602,7 +4604,7 @@
         <v>34</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -4619,7 +4621,7 @@
         <v>34</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -4636,7 +4638,7 @@
         <v>34</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -4653,7 +4655,7 @@
         <v>34</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -4670,7 +4672,7 @@
         <v>34</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -4687,16 +4689,16 @@
         <v>34</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K100">
         <v>1</v>

--- a/config_Release/level_server.xlsx
+++ b/config_Release/level_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -169,141 +169,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"fish_coin","prop_3d_fish_lock"</t>
-  </si>
-  <si>
-    <t>"fish_coin","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>"fish_coin","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>score|经验值，差值计算</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>tips|标签</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -414,219 +283,311 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>"shop_gold_sum","fish_coin","prop_3d_fish_lock"</t>
+  </si>
+  <si>
+    <t>1,1000,1,</t>
+  </si>
+  <si>
+    <t>1,1100,1,</t>
+  </si>
+  <si>
+    <t>1,1200,1,</t>
+  </si>
+  <si>
+    <t>1,1300,1,</t>
+  </si>
+  <si>
+    <t>1,1400,1,</t>
+  </si>
+  <si>
+    <t>1,1500,1,</t>
+  </si>
+  <si>
+    <t>1,1600,1,</t>
+  </si>
+  <si>
+    <t>1,1700,1,</t>
+  </si>
+  <si>
+    <t>1,1800,1,</t>
+  </si>
+  <si>
+    <t>1,1900,1,</t>
+  </si>
+  <si>
+    <t>2,1000,1,</t>
+  </si>
+  <si>
+    <t>2,1100,1,</t>
+  </si>
+  <si>
+    <t>2,1200,1,</t>
+  </si>
+  <si>
+    <t>2,1300,1,</t>
+  </si>
+  <si>
+    <t>2,1400,1,</t>
+  </si>
+  <si>
+    <t>2,1500,1,</t>
+  </si>
+  <si>
+    <t>2,1600,1,</t>
+  </si>
+  <si>
+    <t>2,1700,1,</t>
+  </si>
+  <si>
+    <t>2,1800,1,</t>
+  </si>
+  <si>
+    <t>2,1900,1,</t>
+  </si>
+  <si>
+    <t>3,1000,1,</t>
+  </si>
+  <si>
+    <t>3,1100,1,</t>
+  </si>
+  <si>
+    <t>3,1200,1,</t>
+  </si>
+  <si>
+    <t>3,1300,1,</t>
+  </si>
+  <si>
+    <t>3,1400,1,</t>
+  </si>
+  <si>
+    <t>3,1500,1,</t>
+  </si>
+  <si>
+    <t>3,1600,1,</t>
+  </si>
+  <si>
+    <t>3,1700,1,</t>
+  </si>
+  <si>
+    <t>3,1800,1,</t>
+  </si>
+  <si>
+    <t>3,1900,1,</t>
+  </si>
+  <si>
+    <t>4,1000,1,</t>
+  </si>
+  <si>
+    <t>4,1100,1,</t>
+  </si>
+  <si>
+    <t>4,1200,1,</t>
+  </si>
+  <si>
+    <t>4,1300,1,</t>
+  </si>
+  <si>
+    <t>4,1400,1,</t>
+  </si>
+  <si>
+    <t>4,1500,1,</t>
+  </si>
+  <si>
+    <t>4,1600,1,</t>
+  </si>
+  <si>
+    <t>4,1700,1,</t>
+  </si>
+  <si>
+    <t>4,1800,1,</t>
+  </si>
+  <si>
+    <t>4,1900,1,</t>
+  </si>
+  <si>
+    <t>5,1000,1,</t>
+  </si>
+  <si>
+    <t>5,1100,1,</t>
+  </si>
+  <si>
+    <t>5,1200,1,</t>
+  </si>
+  <si>
+    <t>5,1300,1,</t>
+  </si>
+  <si>
+    <t>5,1400,1,</t>
+  </si>
+  <si>
+    <t>5,1500,1,</t>
+  </si>
+  <si>
+    <t>5,1600,1,</t>
+  </si>
+  <si>
+    <t>5,1700,1,</t>
+  </si>
+  <si>
+    <t>5,1800,1,</t>
+  </si>
+  <si>
+    <t>5,1900,1,</t>
+  </si>
+  <si>
+    <t>6,1000,1,</t>
+  </si>
+  <si>
+    <t>6,1100,1,</t>
+  </si>
+  <si>
+    <t>6,1200,1,</t>
+  </si>
+  <si>
+    <t>6,1300,1,</t>
+  </si>
+  <si>
+    <t>6,1400,1,</t>
+  </si>
+  <si>
+    <t>6,1500,1,</t>
+  </si>
+  <si>
+    <t>6,1600,1,</t>
+  </si>
+  <si>
+    <t>6,1700,1,</t>
+  </si>
+  <si>
+    <t>6,1800,1,</t>
+  </si>
+  <si>
+    <t>6,1900,1,</t>
+  </si>
+  <si>
+    <t>7,1000,1,</t>
+  </si>
+  <si>
+    <t>7,1100,1,</t>
+  </si>
+  <si>
+    <t>7,1200,1,</t>
+  </si>
+  <si>
+    <t>7,1300,1,</t>
+  </si>
+  <si>
+    <t>7,1400,1,</t>
+  </si>
+  <si>
+    <t>7,1500,1,</t>
+  </si>
+  <si>
+    <t>7,1600,1,</t>
+  </si>
+  <si>
+    <t>7,1700,1,</t>
+  </si>
+  <si>
+    <t>7,1800,1,</t>
+  </si>
+  <si>
+    <t>7,1900,1,</t>
+  </si>
+  <si>
+    <t>8,1000,1,</t>
+  </si>
+  <si>
+    <t>8,1100,1,</t>
+  </si>
+  <si>
+    <t>8,1200,1,</t>
+  </si>
+  <si>
+    <t>8,1300,1,</t>
+  </si>
+  <si>
+    <t>8,1400,1,</t>
+  </si>
+  <si>
+    <t>8,1500,1,</t>
+  </si>
+  <si>
+    <t>8,1600,1,</t>
+  </si>
+  <si>
+    <t>8,1700,1,</t>
+  </si>
+  <si>
+    <t>8,1800,1,</t>
+  </si>
+  <si>
+    <t>8,1900,1,</t>
+  </si>
+  <si>
+    <t>9,1000,1,</t>
+  </si>
+  <si>
+    <t>9,1100,1,</t>
+  </si>
+  <si>
+    <t>9,1200,1,</t>
+  </si>
+  <si>
+    <t>9,1300,1,</t>
+  </si>
+  <si>
+    <t>9,1400,1,</t>
+  </si>
+  <si>
+    <t>9,1500,1,</t>
+  </si>
+  <si>
+    <t>9,1600,1,</t>
+  </si>
+  <si>
+    <t>9,1700,1,</t>
+  </si>
+  <si>
+    <t>9,1800,1,</t>
+  </si>
+  <si>
+    <t>9,1900,1,</t>
+  </si>
+  <si>
+    <t>10,1000,1,</t>
+  </si>
+  <si>
+    <t>10,1100,1,</t>
+  </si>
+  <si>
+    <t>10,1200,1,</t>
+  </si>
+  <si>
+    <t>10,1300,1,</t>
+  </si>
+  <si>
+    <t>10,1400,1,</t>
+  </si>
+  <si>
+    <t>10,1500,1,</t>
+  </si>
+  <si>
+    <t>10,1600,1,</t>
+  </si>
+  <si>
+    <t>10,1700,1,</t>
+  </si>
+  <si>
+    <t>10,1800,1,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,6 +679,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -806,11 +774,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
@@ -1139,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>32</v>
@@ -2829,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2838,7 +2806,7 @@
     <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="43.375" customWidth="1"/>
     <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
@@ -2867,17 +2835,17 @@
       <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>93</v>
+      <c r="H1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -2893,11 +2861,11 @@
       <c r="D2" s="2">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>98</v>
+      <c r="E2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="G2" s="5">
         <v>600</v>
@@ -2916,11 +2884,11 @@
       <c r="D3" s="8">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>99</v>
+      <c r="E3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="G3" s="5">
         <v>700</v>
@@ -2939,11 +2907,11 @@
       <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>100</v>
+      <c r="E4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G4" s="5">
         <v>800</v>
@@ -2962,11 +2930,11 @@
       <c r="D5" s="8">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>101</v>
+      <c r="E5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="G5" s="5">
         <v>900</v>
@@ -2985,11 +2953,11 @@
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>102</v>
+      <c r="E6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G6" s="5">
         <v>1000</v>
@@ -3003,11 +2971,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>103</v>
+      <c r="E7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3023,11 +2991,11 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>104</v>
+      <c r="E8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="G8" s="5">
         <v>2000</v>
@@ -3046,11 +3014,11 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>105</v>
+      <c r="E9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="G9" s="5">
         <v>3000</v>
@@ -3069,11 +3037,11 @@
       <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>106</v>
+      <c r="E10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="G10" s="5">
         <v>4000</v>
@@ -3092,11 +3060,11 @@
       <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>107</v>
+      <c r="E11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G11" s="5">
         <v>5000</v>
@@ -3115,11 +3083,11 @@
       <c r="D12" s="2">
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
+      <c r="E12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="G12" s="5">
         <v>6000</v>
@@ -3138,11 +3106,11 @@
       <c r="D13" s="2">
         <v>7</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>108</v>
+      <c r="E13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="G13" s="5">
         <v>7000</v>
@@ -3161,11 +3129,11 @@
       <c r="D14" s="2">
         <v>8</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
+      <c r="E14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="G14" s="5">
         <v>8000</v>
@@ -3184,11 +3152,11 @@
       <c r="D15" s="2">
         <v>9</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>109</v>
+      <c r="E15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="5">
         <v>9000</v>
@@ -3207,11 +3175,11 @@
       <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>110</v>
+      <c r="E16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="G16" s="5">
         <v>10000</v>
@@ -3224,11 +3192,11 @@
       <c r="B17" s="12">
         <v>17</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>39</v>
+      <c r="E17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -3241,11 +3209,11 @@
       <c r="B18" s="12">
         <v>18</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>40</v>
+      <c r="E18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -3258,11 +3226,11 @@
       <c r="B19" s="12">
         <v>19</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>111</v>
+      <c r="E19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3275,11 +3243,11 @@
       <c r="B20" s="12">
         <v>20</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>112</v>
+      <c r="E20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3292,11 +3260,11 @@
       <c r="B21" s="12">
         <v>21</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>113</v>
+      <c r="E21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3311,11 +3279,11 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>41</v>
+      <c r="E22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="7"/>
@@ -3331,11 +3299,11 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>114</v>
+      <c r="E23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="7"/>
@@ -3351,11 +3319,11 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>42</v>
+      <c r="E24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="7"/>
@@ -3369,20 +3337,20 @@
       <c r="B25" s="12">
         <v>25</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>43</v>
+      <c r="E25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3395,11 +3363,11 @@
       <c r="B26" s="12">
         <v>26</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>115</v>
+      <c r="E26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3411,11 +3379,11 @@
       <c r="B27" s="12">
         <v>27</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>116</v>
+      <c r="E27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3427,11 +3395,11 @@
       <c r="B28" s="12">
         <v>28</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>44</v>
+      <c r="E28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3443,11 +3411,11 @@
       <c r="B29" s="12">
         <v>29</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>117</v>
+      <c r="E29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3459,20 +3427,20 @@
       <c r="B30" s="12">
         <v>30</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>45</v>
+      <c r="E30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3485,11 +3453,11 @@
       <c r="B31" s="12">
         <v>31</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>46</v>
+      <c r="E31" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -3502,11 +3470,11 @@
       <c r="B32" s="12">
         <v>32</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>47</v>
+      <c r="E32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3519,11 +3487,11 @@
       <c r="B33" s="12">
         <v>33</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>118</v>
+      <c r="E33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3536,11 +3504,11 @@
       <c r="B34" s="12">
         <v>34</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>48</v>
+      <c r="E34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -3553,11 +3521,11 @@
       <c r="B35" s="12">
         <v>35</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>119</v>
+      <c r="E35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3570,11 +3538,11 @@
       <c r="B36" s="12">
         <v>36</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>120</v>
+      <c r="E36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -3587,11 +3555,11 @@
       <c r="B37" s="12">
         <v>37</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>121</v>
+      <c r="E37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -3604,11 +3572,11 @@
       <c r="B38" s="12">
         <v>38</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>122</v>
+      <c r="E38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -3621,11 +3589,11 @@
       <c r="B39" s="12">
         <v>39</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>123</v>
+      <c r="E39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3638,20 +3606,20 @@
       <c r="B40" s="12">
         <v>40</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>124</v>
+      <c r="E40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3664,11 +3632,11 @@
       <c r="B41" s="12">
         <v>41</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>125</v>
+      <c r="E41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -3680,11 +3648,11 @@
       <c r="B42" s="12">
         <v>42</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>49</v>
+      <c r="E42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -3696,11 +3664,11 @@
       <c r="B43" s="12">
         <v>43</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>50</v>
+      <c r="E43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -3712,11 +3680,11 @@
       <c r="B44" s="12">
         <v>44</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>126</v>
+      <c r="E44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -3728,11 +3696,11 @@
       <c r="B45" s="12">
         <v>45</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>127</v>
+      <c r="E45" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -3744,11 +3712,11 @@
       <c r="B46" s="12">
         <v>46</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>128</v>
+      <c r="E46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -3760,11 +3728,11 @@
       <c r="B47" s="12">
         <v>47</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>129</v>
+      <c r="E47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -3776,11 +3744,11 @@
       <c r="B48" s="12">
         <v>48</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>51</v>
+      <c r="E48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -3792,11 +3760,11 @@
       <c r="B49" s="12">
         <v>49</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>130</v>
+      <c r="E49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -3808,20 +3776,20 @@
       <c r="B50" s="12">
         <v>50</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>131</v>
+      <c r="E50" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -3834,11 +3802,11 @@
       <c r="B51" s="12">
         <v>51</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>132</v>
+      <c r="E51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -3851,11 +3819,11 @@
       <c r="B52" s="12">
         <v>52</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>133</v>
+      <c r="E52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -3868,11 +3836,11 @@
       <c r="B53" s="12">
         <v>53</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>134</v>
+      <c r="E53" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -3885,11 +3853,11 @@
       <c r="B54" s="12">
         <v>54</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>135</v>
+      <c r="E54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -3902,11 +3870,11 @@
       <c r="B55" s="12">
         <v>55</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>136</v>
+      <c r="E55" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -3919,11 +3887,11 @@
       <c r="B56" s="12">
         <v>56</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>137</v>
+      <c r="E56" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -3936,11 +3904,11 @@
       <c r="B57" s="12">
         <v>57</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>138</v>
+      <c r="E57" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -3953,11 +3921,11 @@
       <c r="B58" s="12">
         <v>58</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>52</v>
+      <c r="E58" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -3970,11 +3938,11 @@
       <c r="B59" s="12">
         <v>59</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>53</v>
+      <c r="E59" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -3987,20 +3955,20 @@
       <c r="B60" s="12">
         <v>60</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>54</v>
+      <c r="E60" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4013,11 +3981,11 @@
       <c r="B61" s="12">
         <v>61</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>55</v>
+      <c r="E61" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -4029,11 +3997,11 @@
       <c r="B62" s="12">
         <v>62</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>139</v>
+      <c r="E62" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -4045,11 +4013,11 @@
       <c r="B63" s="12">
         <v>63</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>140</v>
+      <c r="E63" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -4061,11 +4029,11 @@
       <c r="B64" s="12">
         <v>64</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>141</v>
+      <c r="E64" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -4077,11 +4045,11 @@
       <c r="B65" s="12">
         <v>65</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>56</v>
+      <c r="E65" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -4093,11 +4061,11 @@
       <c r="B66" s="12">
         <v>66</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>57</v>
+      <c r="E66" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -4109,11 +4077,11 @@
       <c r="B67" s="12">
         <v>67</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>58</v>
+      <c r="E67" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -4125,11 +4093,11 @@
       <c r="B68" s="12">
         <v>68</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>59</v>
+      <c r="E68" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -4141,11 +4109,11 @@
       <c r="B69" s="12">
         <v>69</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>142</v>
+      <c r="E69" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -4157,20 +4125,20 @@
       <c r="B70" s="12">
         <v>70</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>143</v>
+      <c r="E70" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -4183,11 +4151,11 @@
       <c r="B71" s="12">
         <v>71</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>144</v>
+      <c r="E71" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -4200,11 +4168,11 @@
       <c r="B72" s="12">
         <v>72</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>145</v>
+      <c r="E72" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -4217,11 +4185,11 @@
       <c r="B73" s="12">
         <v>73</v>
       </c>
-      <c r="E73" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>146</v>
+      <c r="E73" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -4234,11 +4202,11 @@
       <c r="B74" s="12">
         <v>74</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>60</v>
+      <c r="E74" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -4251,11 +4219,11 @@
       <c r="B75" s="12">
         <v>75</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>61</v>
+      <c r="E75" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -4268,11 +4236,11 @@
       <c r="B76" s="12">
         <v>76</v>
       </c>
-      <c r="E76" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>147</v>
+      <c r="E76" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -4285,11 +4253,11 @@
       <c r="B77" s="12">
         <v>77</v>
       </c>
-      <c r="E77" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>148</v>
+      <c r="E77" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -4302,11 +4270,11 @@
       <c r="B78" s="12">
         <v>78</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>62</v>
+      <c r="E78" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -4319,11 +4287,11 @@
       <c r="B79" s="12">
         <v>79</v>
       </c>
-      <c r="E79" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>149</v>
+      <c r="E79" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -4336,20 +4304,20 @@
       <c r="B80" s="12">
         <v>80</v>
       </c>
-      <c r="E80" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>63</v>
+      <c r="E80" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -4362,11 +4330,11 @@
       <c r="B81" s="12">
         <v>81</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>64</v>
+      <c r="E81" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -4378,11 +4346,11 @@
       <c r="B82" s="12">
         <v>82</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>65</v>
+      <c r="E82" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -4394,11 +4362,11 @@
       <c r="B83" s="12">
         <v>83</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>66</v>
+      <c r="E83" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -4410,11 +4378,11 @@
       <c r="B84" s="12">
         <v>84</v>
       </c>
-      <c r="E84" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>66</v>
+      <c r="E84" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -4426,11 +4394,11 @@
       <c r="B85" s="12">
         <v>85</v>
       </c>
-      <c r="E85" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>66</v>
+      <c r="E85" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -4442,11 +4410,11 @@
       <c r="B86" s="12">
         <v>86</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>66</v>
+      <c r="E86" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -4458,11 +4426,11 @@
       <c r="B87" s="12">
         <v>87</v>
       </c>
-      <c r="E87" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>66</v>
+      <c r="E87" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -4474,11 +4442,11 @@
       <c r="B88" s="12">
         <v>88</v>
       </c>
-      <c r="E88" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>66</v>
+      <c r="E88" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -4490,11 +4458,11 @@
       <c r="B89" s="12">
         <v>89</v>
       </c>
-      <c r="E89" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>66</v>
+      <c r="E89" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -4506,20 +4474,20 @@
       <c r="B90" s="12">
         <v>90</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>66</v>
+      <c r="E90" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -4532,11 +4500,11 @@
       <c r="B91" s="12">
         <v>91</v>
       </c>
-      <c r="E91" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>66</v>
+      <c r="E91" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -4549,11 +4517,11 @@
       <c r="B92" s="12">
         <v>92</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>66</v>
+      <c r="E92" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -4566,11 +4534,11 @@
       <c r="B93" s="12">
         <v>93</v>
       </c>
-      <c r="E93" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>66</v>
+      <c r="E93" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -4583,11 +4551,11 @@
       <c r="B94" s="12">
         <v>94</v>
       </c>
-      <c r="E94" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>66</v>
+      <c r="E94" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -4600,11 +4568,11 @@
       <c r="B95" s="12">
         <v>95</v>
       </c>
-      <c r="E95" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>66</v>
+      <c r="E95" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -4617,11 +4585,11 @@
       <c r="B96" s="12">
         <v>96</v>
       </c>
-      <c r="E96" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>66</v>
+      <c r="E96" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -4634,11 +4602,11 @@
       <c r="B97" s="12">
         <v>97</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>66</v>
+      <c r="E97" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -4651,11 +4619,11 @@
       <c r="B98" s="12">
         <v>98</v>
       </c>
-      <c r="E98" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>66</v>
+      <c r="E98" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -4668,11 +4636,11 @@
       <c r="B99" s="12">
         <v>99</v>
       </c>
-      <c r="E99" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>66</v>
+      <c r="E99" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -4685,20 +4653,20 @@
       <c r="B100" s="12">
         <v>100</v>
       </c>
-      <c r="E100" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>66</v>
+      <c r="E100" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="K100">
         <v>1</v>

--- a/config_Release/level_server.xlsx
+++ b/config_Release/level_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>32</v>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>

--- a/config_Release/level_server.xlsx
+++ b/config_Release/level_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11">
-        <v>225000</v>
+        <v>100000</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1152,7 +1152,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11">
-        <v>337500</v>
+        <v>200000</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1166,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11">
-        <v>450000</v>
+        <v>400000</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
